--- a/template.xlsx
+++ b/template.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/856f514db732415a/Code/AWSSavingsPlansPriceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{33CAEBCE-9511-4894-B9A8-2EA5E80BDC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{33CAEBCE-9511-4894-B9A8-2EA5E80BDC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9B08F7B-2F95-4D9F-A226-02682289F61B}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="990" windowWidth="28980" windowHeight="17610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17805" yWindow="990" windowWidth="28980" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
     <sheet name="InputRI" sheetId="1" r:id="rId2"/>
-    <sheet name="InputSP" sheetId="4" r:id="rId3"/>
+    <sheet name="SavingsPlans" sheetId="4" r:id="rId3"/>
     <sheet name="Transform" sheetId="2" r:id="rId4"/>
     <sheet name="Output" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InputSP!$A$1:$I$2483</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Output!$A$1:$R$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SavingsPlans!$A$1:$I$2483</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Recommendation Date</t>
   </si>
@@ -250,12 +250,6 @@
     <t>1. Input raw Reserved Instance recommandation CSV to InputRI</t>
   </si>
   <si>
-    <t>2. Input generated Savings Plans data to InputSP</t>
-  </si>
-  <si>
-    <t>3. View Output, sort with desired Savings column</t>
-  </si>
-  <si>
     <t>1P Rate</t>
   </si>
   <si>
@@ -266,6 +260,9 @@
   </si>
   <si>
     <t>3P Saving</t>
+  </si>
+  <si>
+    <t>2. View Output, sort with desired Savings column</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8B5E9-2C8B-4C9B-8364-34336EE504F3}">
   <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,13 +1201,11 @@
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1595,7 @@
   <dimension ref="A1:J4965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25073,7 +25068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -25143,16 +25138,16 @@
         <v>63</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -25181,51 +25176,51 @@
         <v>r5.24xlarge-Asia Pacific (Sydney)-Red Hat Enterprise Linux-Shared</v>
       </c>
       <c r="G2" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="H2" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I2" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="J2" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K2" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="L2" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M2" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="N2" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O2" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="P2" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q2" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E2</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E2</f>
         <v>#N/A</v>
       </c>
       <c r="R2" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F2,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F2,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25255,51 +25250,51 @@
         <v>t3.large-Asia Pacific (Sydney)-Windows-Shared</v>
       </c>
       <c r="G3" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="J3" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="N3" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="P3" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q3" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E3</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E3</f>
         <v>#N/A</v>
       </c>
       <c r="R3" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F3,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F3,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25329,51 +25324,51 @@
         <v>i3.large-Asia Pacific (Sydney)-Linux/UNIX-Shared</v>
       </c>
       <c r="G4" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I4" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="J4" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="N4" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="P4" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E4</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E4</f>
         <v>#N/A</v>
       </c>
       <c r="R4" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F4,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F4,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25403,51 +25398,51 @@
         <v>r5.2xlarge-Asia Pacific (Sydney)-Windows-Dedicated</v>
       </c>
       <c r="G5" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="H5" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="J5" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="N5" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O5" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="P5" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E5</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E5</f>
         <v>#N/A</v>
       </c>
       <c r="R5" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F5,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F5,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25477,51 +25472,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G6" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="H6" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="J6" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="N6" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O6" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="P6" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E6</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E6</f>
         <v>#N/A</v>
       </c>
       <c r="R6" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F6,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F6,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25551,51 +25546,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G7" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="H7" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="J7" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="N7" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O7" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="P7" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E7</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E7</f>
         <v>#N/A</v>
       </c>
       <c r="R7" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F7,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F7,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25625,51 +25620,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G8" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="H8" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="J8" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="N8" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O8" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="P8" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E8</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E8</f>
         <v>#N/A</v>
       </c>
       <c r="R8" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F8,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F8,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25699,51 +25694,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G9" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="H9" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="J9" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="N9" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O9" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="P9" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E9</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E9</f>
         <v>#N/A</v>
       </c>
       <c r="R9" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F9,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F9,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25773,51 +25768,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G10" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="H10" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="J10" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="N10" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O10" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="P10" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E10</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E10</f>
         <v>#N/A</v>
       </c>
       <c r="R10" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F10,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F10,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25847,51 +25842,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G11" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="J11" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="N11" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O11" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="P11" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E11</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E11</f>
         <v>#N/A</v>
       </c>
       <c r="R11" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F11,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F11,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25921,51 +25916,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G12" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="J12" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="N12" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O12" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="P12" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E12</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E12</f>
         <v>#N/A</v>
       </c>
       <c r="R12" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F12,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F12,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25995,51 +25990,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G13" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="H13" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="J13" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="N13" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O13" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="P13" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E13</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E13</f>
         <v>#N/A</v>
       </c>
       <c r="R13" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F13,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F13,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26069,51 +26064,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G14" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="H14" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="J14" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="N14" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O14" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="P14" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E14</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E14</f>
         <v>#N/A</v>
       </c>
       <c r="R14" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F14,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F14,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26143,51 +26138,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G15" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="H15" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="J15" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="N15" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O15" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="P15" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E15</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E15</f>
         <v>#N/A</v>
       </c>
       <c r="R15" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F15,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F15,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26217,51 +26212,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G16" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="H16" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="J16" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M16" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="N16" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O16" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="P16" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E16</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E16</f>
         <v>#N/A</v>
       </c>
       <c r="R16" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F16,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F16,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26291,51 +26286,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G17" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="H17" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="J17" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="L17" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M17" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="N17" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O17" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="P17" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E17</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E17</f>
         <v>#N/A</v>
       </c>
       <c r="R17" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F17,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F17,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26365,51 +26360,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G18" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="H18" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="J18" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="L18" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M18" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="N18" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O18" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="P18" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E18</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E18</f>
         <v>#N/A</v>
       </c>
       <c r="R18" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F18,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F18,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26439,51 +26434,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G19" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="H19" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="J19" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="L19" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M19" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="N19" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O19" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="P19" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E19</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E19</f>
         <v>#N/A</v>
       </c>
       <c r="R19" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F19,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F19,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26513,51 +26508,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G20" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="H20" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="J20" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="L20" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M20" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="N20" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O20" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="P20" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E20</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E20</f>
         <v>#N/A</v>
       </c>
       <c r="R20" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F20,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F20,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26587,51 +26582,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G21" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="H21" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="J21" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K21" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="L21" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M21" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="N21" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O21" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="P21" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E21</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E21</f>
         <v>#N/A</v>
       </c>
       <c r="R21" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F21,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F21,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26661,51 +26656,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G22" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="H22" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="J22" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K22" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="L22" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M22" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="N22" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O22" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="P22" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q22" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E22</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E22</f>
         <v>#N/A</v>
       </c>
       <c r="R22" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F22,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F22,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26735,51 +26730,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G23" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="H23" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="J23" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K23" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="L23" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M23" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="N23" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O23" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="P23" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q23" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E23</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E23</f>
         <v>#N/A</v>
       </c>
       <c r="R23" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F23,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F23,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26809,51 +26804,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G24" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="H24" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="J24" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K24" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="L24" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M24" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="N24" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O24" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="P24" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E24</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E24</f>
         <v>#N/A</v>
       </c>
       <c r="R24" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F24,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F24,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26883,51 +26878,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G25" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="H25" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="J25" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K25" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="L25" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M25" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="N25" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O25" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="P25" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q25" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E25</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E25</f>
         <v>#N/A</v>
       </c>
       <c r="R25" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F25,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F25,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26957,51 +26952,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G26" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="H26" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="J26" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K26" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="L26" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M26" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="N26" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O26" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="P26" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q26" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E26</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E26</f>
         <v>#N/A</v>
       </c>
       <c r="R26" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F26,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F26,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27031,51 +27026,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G27" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="H27" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="J27" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K27" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="L27" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M27" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="N27" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O27" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="P27" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q27" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E27</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E27</f>
         <v>#N/A</v>
       </c>
       <c r="R27" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F27,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F27,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27105,51 +27100,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G28" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="H28" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="J28" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K28" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="L28" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M28" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="N28" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O28" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="P28" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q28" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E28</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E28</f>
         <v>#N/A</v>
       </c>
       <c r="R28" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F28,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F28,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27179,51 +27174,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G29" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="J29" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K29" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="L29" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M29" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="N29" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O29" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="P29" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q29" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E29</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E29</f>
         <v>#N/A</v>
       </c>
       <c r="R29" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F29,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F29,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27253,51 +27248,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G30" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="H30" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="J30" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K30" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="L30" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M30" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="N30" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O30" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="P30" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q30" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E30</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E30</f>
         <v>#N/A</v>
       </c>
       <c r="R30" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F30,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F30,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27327,51 +27322,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G31" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="H31" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="J31" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K31" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="L31" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M31" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="N31" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O31" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="P31" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q31" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E31</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E31</f>
         <v>#N/A</v>
       </c>
       <c r="R31" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F31,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F31,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27401,51 +27396,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G32" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="J32" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K32" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="L32" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M32" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="N32" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O32" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="P32" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q32" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E32</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E32</f>
         <v>#N/A</v>
       </c>
       <c r="R32" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F32,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F32,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27475,51 +27470,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G33" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="H33" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="J33" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K33" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="L33" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M33" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="N33" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O33" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="P33" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q33" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E33</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E33</f>
         <v>#N/A</v>
       </c>
       <c r="R33" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F33,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F33,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27549,51 +27544,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G34" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="H34" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="J34" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K34" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="L34" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M34" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="N34" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O34" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="P34" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q34" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E34</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E34</f>
         <v>#N/A</v>
       </c>
       <c r="R34" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F34,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F34,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27623,51 +27618,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G35" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="H35" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="J35" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K35" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="L35" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M35" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="N35" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O35" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="P35" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q35" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E35</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E35</f>
         <v>#N/A</v>
       </c>
       <c r="R35" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F35,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F35,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27697,51 +27692,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G36" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="H36" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="J36" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K36" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="L36" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M36" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="N36" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O36" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="P36" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q36" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E36</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E36</f>
         <v>#N/A</v>
       </c>
       <c r="R36" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F36,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F36,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27771,51 +27766,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G37" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="H37" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="J37" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K37" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="L37" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M37" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="N37" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O37" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="P37" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q37" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E37</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E37</f>
         <v>#N/A</v>
       </c>
       <c r="R37" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F37,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F37,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27845,51 +27840,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G38" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="H38" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="J38" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K38" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="L38" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M38" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="N38" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O38" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="P38" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q38" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E38</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E38</f>
         <v>#N/A</v>
       </c>
       <c r="R38" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F38,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F38,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27919,51 +27914,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G39" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="H39" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="J39" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K39" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="L39" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M39" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="N39" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O39" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="P39" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q39" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E39</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E39</f>
         <v>#N/A</v>
       </c>
       <c r="R39" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F39,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F39,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27993,51 +27988,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G40" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="H40" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="J40" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K40" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="L40" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M40" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="N40" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O40" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="P40" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q40" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E40</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E40</f>
         <v>#N/A</v>
       </c>
       <c r="R40" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F40,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F40,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28067,51 +28062,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G41" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="H41" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="J41" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K41" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="L41" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M41" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="N41" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O41" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="P41" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q41" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E41</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E41</f>
         <v>#N/A</v>
       </c>
       <c r="R41" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F41,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F41,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28141,51 +28136,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G42" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="H42" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="J42" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K42" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="L42" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M42" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="N42" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O42" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="P42" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q42" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E42</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E42</f>
         <v>#N/A</v>
       </c>
       <c r="R42" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F42,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F42,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28215,51 +28210,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G43" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="H43" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="J43" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K43" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="L43" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M43" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="N43" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O43" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="P43" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q43" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E43</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E43</f>
         <v>#N/A</v>
       </c>
       <c r="R43" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F43,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F43,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28289,51 +28284,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G44" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="H44" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="J44" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K44" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="L44" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M44" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="N44" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O44" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="P44" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q44" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E44</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E44</f>
         <v>#N/A</v>
       </c>
       <c r="R44" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F44,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F44,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28363,51 +28358,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G45" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="H45" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="J45" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K45" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="L45" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M45" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="N45" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O45" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="P45" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q45" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E45</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E45</f>
         <v>#N/A</v>
       </c>
       <c r="R45" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F45,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F45,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28437,51 +28432,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G46" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="H46" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="J46" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K46" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="L46" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M46" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="N46" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O46" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="P46" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q46" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E46</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E46</f>
         <v>#N/A</v>
       </c>
       <c r="R46" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F46,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F46,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28511,51 +28506,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G47" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="H47" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="J47" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K47" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="L47" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M47" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="N47" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O47" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="P47" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q47" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E47</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E47</f>
         <v>#N/A</v>
       </c>
       <c r="R47" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F47,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F47,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28585,51 +28580,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G48" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="H48" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="J48" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K48" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="L48" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M48" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="N48" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O48" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="P48" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q48" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E48</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E48</f>
         <v>#N/A</v>
       </c>
       <c r="R48" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F48,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F48,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28659,51 +28654,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G49" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="H49" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="J49" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K49" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="L49" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M49" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="N49" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O49" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="P49" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q49" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E49</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E49</f>
         <v>#N/A</v>
       </c>
       <c r="R49" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F49,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F49,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28733,51 +28728,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G50" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="H50" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="J50" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K50" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="L50" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M50" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="N50" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O50" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="P50" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q50" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E50</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E50</f>
         <v>#N/A</v>
       </c>
       <c r="R50" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F50,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F50,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28807,51 +28802,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G51" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="H51" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="J51" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K51" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="L51" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M51" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="N51" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O51" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="P51" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q51" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E51</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E51</f>
         <v>#N/A</v>
       </c>
       <c r="R51" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F51,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F51,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28881,51 +28876,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G52" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="H52" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="J52" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K52" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="L52" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M52" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="N52" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O52" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="P52" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q52" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E52</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E52</f>
         <v>#N/A</v>
       </c>
       <c r="R52" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F52,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F52,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28955,51 +28950,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G53" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="H53" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="J53" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K53" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="L53" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M53" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="N53" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O53" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="P53" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q53" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E53</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E53</f>
         <v>#N/A</v>
       </c>
       <c r="R53" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F53,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F53,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29029,51 +29024,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G54" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="H54" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="J54" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K54" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="L54" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M54" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="N54" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O54" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="P54" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q54" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E54</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E54</f>
         <v>#N/A</v>
       </c>
       <c r="R54" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F54,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F54,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29103,51 +29098,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G55" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="H55" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="J55" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K55" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="L55" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M55" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="N55" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O55" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="P55" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q55" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E55</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E55</f>
         <v>#N/A</v>
       </c>
       <c r="R55" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F55,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F55,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29177,51 +29172,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G56" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="H56" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="J56" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K56" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="L56" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M56" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="N56" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O56" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="P56" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q56" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E56</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E56</f>
         <v>#N/A</v>
       </c>
       <c r="R56" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F56,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F56,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29251,51 +29246,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G57" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="H57" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="J57" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K57" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="L57" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M57" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="N57" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O57" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="P57" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q57" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E57</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E57</f>
         <v>#N/A</v>
       </c>
       <c r="R57" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F57,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F57,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29325,51 +29320,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G58" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="H58" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="J58" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K58" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="L58" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M58" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="N58" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O58" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="P58" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q58" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E58</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E58</f>
         <v>#N/A</v>
       </c>
       <c r="R58" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F58,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F58,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29399,51 +29394,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G59" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="H59" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="J59" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K59" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="L59" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M59" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="N59" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O59" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="P59" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q59" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E59</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E59</f>
         <v>#N/A</v>
       </c>
       <c r="R59" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F59,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F59,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29473,51 +29468,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G60" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="H60" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="J60" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K60" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="L60" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M60" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="N60" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O60" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="P60" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q60" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E60</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E60</f>
         <v>#N/A</v>
       </c>
       <c r="R60" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F60,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F60,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29547,51 +29542,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G61" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="J61" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K61" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M61" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="N61" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O61" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q61" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E61</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E61</f>
         <v>#N/A</v>
       </c>
       <c r="R61" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F61,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F61,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29621,51 +29616,51 @@
         <v>0-0--0</v>
       </c>
       <c r="G62" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1N"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1N"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1A"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1A"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="J62" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K62" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3N"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3N"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3N"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3N"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M62" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3A"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3A"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="N62" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3A"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3A"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O62" s="7" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1P"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1P"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-1P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-1P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
       <c r="Q62" s="13" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3P"),InputSP!$G$2:$J$21000,3,0))*$E62</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3P"),SavingsPlans!$G$2:$J$21000,3,0))*$E62</f>
         <v>#N/A</v>
       </c>
       <c r="R62" s="14" t="e">
-        <f>(VLOOKUP(CONCATENATE($F62,"-3P"),InputSP!$G$2:$J$21000,4,0))</f>
+        <f>(VLOOKUP(CONCATENATE($F62,"-3P"),SavingsPlans!$G$2:$J$21000,4,0))</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/856f514db732415a/Code/AWSSavingsPlansPriceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{33CAEBCE-9511-4894-B9A8-2EA5E80BDC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9B08F7B-2F95-4D9F-A226-02682289F61B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="114_{33CAEBCE-9511-4894-B9A8-2EA5E80BDC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF749F1E-A773-4DAA-91F7-F655F7B882CF}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="990" windowWidth="28980" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2520" windowWidth="19080" windowHeight="15135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>Recommendation Date</t>
   </si>
@@ -264,14 +264,18 @@
   <si>
     <t>2. View Output, sort with desired Savings column</t>
   </si>
+  <si>
+    <t>sprate_annual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -791,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -829,6 +833,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1186,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8B5E9-2C8B-4C9B-8364-34336EE504F3}">
   <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1592,18 +1598,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4965"/>
+  <dimension ref="A1:K4965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1634,8 +1641,11 @@
       <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1666,8 +1676,11 @@
       <c r="J2">
         <v>27.54</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="18">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1698,8 +1711,11 @@
       <c r="J3">
         <v>17.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="18">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1730,8 +1746,11 @@
       <c r="J4">
         <v>15.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="18">
+        <v>1.8320000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1762,48 +1781,51 @@
       <c r="J5">
         <v>15.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="18">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -21604,8 +21626,8 @@
       <c r="I4965" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2483" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
